--- a/Documents/Logboeken/Logboek-Ben.xlsx
+++ b/Documents/Logboeken/Logboek-Ben.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\website\fifa\project_fifa\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\website\fifa\project_fifa\Documents\Logboeken\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>Verrichte werkzaamheden</t>
-  </si>
-  <si>
-    <t>Week 1</t>
   </si>
   <si>
     <t xml:space="preserve">13.30 </t>
@@ -89,6 +86,24 @@
   </si>
   <si>
     <t>Groep 10: EA-Sports-3-0</t>
+  </si>
+  <si>
+    <t>13.00</t>
+  </si>
+  <si>
+    <t>de rollen zijn wat beter samen gesteld.</t>
+  </si>
+  <si>
+    <t>dit is in de groep samen gedaan.</t>
+  </si>
+  <si>
+    <t>plan van aanpack in gedeeltelijk samen gesteldt.</t>
+  </si>
+  <si>
+    <t>15.30</t>
+  </si>
+  <si>
+    <t>interview met de opdracht geever.</t>
   </si>
 </sst>
 </file>
@@ -143,10 +158,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -461,13 +477,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -476,12 +495,12 @@
     </row>
     <row r="2" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -498,55 +517,100 @@
         <v>5</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="3">
+        <v>42843</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
       </c>
       <c r="E7" t="s">
         <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>6</v>
+      <c r="A8" s="3">
+        <v>42843</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
         <v>3</v>
       </c>
       <c r="G8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
+        <v>42843</v>
+      </c>
+      <c r="C9" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" t="s">
-        <v>14</v>
       </c>
       <c r="E9" t="s">
         <v>3</v>
       </c>
       <c r="G9" t="s">
-        <v>15</v>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
+        <v>42844</v>
+      </c>
+      <c r="C11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
+        <v>42844</v>
+      </c>
+      <c r="C12" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
+        <v>42844</v>
+      </c>
+      <c r="C13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Logboeken/Logboek-Ben.xlsx
+++ b/Documents/Logboeken/Logboek-Ben.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -104,6 +104,15 @@
   </si>
   <si>
     <t>interview met de opdracht geever.</t>
+  </si>
+  <si>
+    <t>16.00</t>
+  </si>
+  <si>
+    <t>plan van aanpak af maken.</t>
+  </si>
+  <si>
+    <t>Projectgrenzen gedeelte in mijn geval.</t>
   </si>
 </sst>
 </file>
@@ -477,10 +486,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -613,6 +622,23 @@
         <v>22</v>
       </c>
     </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
+        <v>42844</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>24</v>
+      </c>
+      <c r="N14" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek-Ben.xlsx
+++ b/Documents/Logboeken/Logboek-Ben.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -113,6 +113,18 @@
   </si>
   <si>
     <t>Projectgrenzen gedeelte in mijn geval.</t>
+  </si>
+  <si>
+    <t>9.20</t>
+  </si>
+  <si>
+    <t>moscow maken.</t>
+  </si>
+  <si>
+    <t>9.25</t>
+  </si>
+  <si>
+    <t>werken aan website template.</t>
   </si>
 </sst>
 </file>
@@ -486,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -639,6 +651,34 @@
         <v>25</v>
       </c>
     </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
+        <v>42845</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
+        <v>42845</v>
+      </c>
+      <c r="C17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" t="s">
+        <v>29</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek-Ben.xlsx
+++ b/Documents/Logboeken/Logboek-Ben.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t>werken aan website template.</t>
+  </si>
+  <si>
+    <t>werken aan de website</t>
   </si>
 </sst>
 </file>
@@ -498,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -679,6 +682,20 @@
         <v>29</v>
       </c>
     </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
+        <v>42856</v>
+      </c>
+      <c r="C19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek-Ben.xlsx
+++ b/Documents/Logboeken/Logboek-Ben.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -127,7 +127,10 @@
     <t>werken aan website template.</t>
   </si>
   <si>
-    <t>werken aan de website</t>
+    <t>werken aan website (resultaten.php)</t>
+  </si>
+  <si>
+    <t>werken aan de website (invoeren_resultaten.php)</t>
   </si>
 </sst>
 </file>
@@ -501,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -693,6 +696,20 @@
         <v>3</v>
       </c>
       <c r="G19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
+        <v>42857</v>
+      </c>
+      <c r="C21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" t="s">
         <v>30</v>
       </c>
     </row>

--- a/Documents/Logboeken/Logboek-Ben.xlsx
+++ b/Documents/Logboeken/Logboek-Ben.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -131,6 +131,9 @@
   </si>
   <si>
     <t>werken aan de website (invoeren_resultaten.php)</t>
+  </si>
+  <si>
+    <t>werken aan website (invoeren_resultaten php gedeelte)</t>
   </si>
 </sst>
 </file>
@@ -504,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,6 +716,20 @@
         <v>30</v>
       </c>
     </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
+        <v>42858</v>
+      </c>
+      <c r="C23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek-Ben.xlsx
+++ b/Documents/Logboeken/Logboek-Ben.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t>werken aan website (invoeren_resultaten php gedeelte)</t>
+  </si>
+  <si>
+    <t>9.30</t>
+  </si>
+  <si>
+    <t>school</t>
+  </si>
+  <si>
+    <t>werken aan website (resultaten_handler.php)</t>
   </si>
 </sst>
 </file>
@@ -507,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -730,6 +739,20 @@
         <v>32</v>
       </c>
     </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
+        <v>42859</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek-Ben.xlsx
+++ b/Documents/Logboeken/Logboek-Ben.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -143,6 +143,15 @@
   </si>
   <si>
     <t>werken aan website (resultaten_handler.php)</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ziek.</t>
+  </si>
+  <si>
+    <t>werken aan website (invoeren_resultaten.php)</t>
   </si>
 </sst>
 </file>
@@ -516,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,6 +762,34 @@
         <v>35</v>
       </c>
     </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="3">
+        <v>42863</v>
+      </c>
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+      <c r="G27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="3">
+        <v>42864</v>
+      </c>
+      <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>38</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek-Ben.xlsx
+++ b/Documents/Logboeken/Logboek-Ben.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>werken aan website (invoeren_resultaten.php)</t>
+  </si>
+  <si>
+    <t>8.50</t>
+  </si>
+  <si>
+    <t>werken aan de php van poulstanden.</t>
   </si>
 </sst>
 </file>
@@ -525,10 +531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -790,6 +796,34 @@
         <v>38</v>
       </c>
     </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="3">
+        <v>42865</v>
+      </c>
+      <c r="C31" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="G31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="3">
+        <v>42866</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="G33" t="s">
+        <v>40</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek-Ben.xlsx
+++ b/Documents/Logboeken/Logboek-Ben.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -158,6 +158,12 @@
   </si>
   <si>
     <t>werken aan de php van poulstanden.</t>
+  </si>
+  <si>
+    <t>11.30</t>
+  </si>
+  <si>
+    <t>werken aan de php van topscoorder.</t>
   </si>
 </sst>
 </file>
@@ -531,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:N34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -824,6 +830,20 @@
         <v>40</v>
       </c>
     </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="3">
+        <v>42866</v>
+      </c>
+      <c r="C34" t="s">
+        <v>41</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="G34" t="s">
+        <v>42</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek-Ben.xlsx
+++ b/Documents/Logboeken/Logboek-Ben.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -164,6 +164,24 @@
   </si>
   <si>
     <t>werken aan de php van topscoorder.</t>
+  </si>
+  <si>
+    <t>23.30</t>
+  </si>
+  <si>
+    <t>thuis</t>
+  </si>
+  <si>
+    <t>werken aan de php van resultaten.php.</t>
+  </si>
+  <si>
+    <t>8.40</t>
+  </si>
+  <si>
+    <t>werken aan de html van invoeren teams en spelers</t>
+  </si>
+  <si>
+    <t>werken aan de php van invoeren teams en spelers</t>
   </si>
 </sst>
 </file>
@@ -537,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N34"/>
+  <dimension ref="A1:N38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -844,6 +862,48 @@
         <v>42</v>
       </c>
     </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="3">
+        <v>42866</v>
+      </c>
+      <c r="C35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="3">
+        <v>42867</v>
+      </c>
+      <c r="C37" t="s">
+        <v>46</v>
+      </c>
+      <c r="E37" t="s">
+        <v>3</v>
+      </c>
+      <c r="G37" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="3">
+        <v>42867</v>
+      </c>
+      <c r="C38" t="s">
+        <v>33</v>
+      </c>
+      <c r="E38" t="s">
+        <v>3</v>
+      </c>
+      <c r="G38" t="s">
+        <v>48</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek-Ben.xlsx
+++ b/Documents/Logboeken/Logboek-Ben.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -182,6 +182,9 @@
   </si>
   <si>
     <t>werken aan de php van invoeren teams en spelers</t>
+  </si>
+  <si>
+    <t>werken aan de php van invoeren teams en spelers.</t>
   </si>
 </sst>
 </file>
@@ -555,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N38"/>
+  <dimension ref="A1:N40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,6 +907,20 @@
         <v>48</v>
       </c>
     </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="3">
+        <v>42870</v>
+      </c>
+      <c r="C40" t="s">
+        <v>17</v>
+      </c>
+      <c r="E40" t="s">
+        <v>3</v>
+      </c>
+      <c r="G40" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Documents/Logboeken/Logboek-Ben.xlsx
+++ b/Documents/Logboeken/Logboek-Ben.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t xml:space="preserve">Project Fifa </t>
   </si>
@@ -558,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N40"/>
+  <dimension ref="A1:N42"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I46" sqref="I46"/>
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -921,6 +921,20 @@
         <v>49</v>
       </c>
     </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="3">
+        <v>42871</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
